--- a/Code/Results/Cases/Case_7_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_33/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.561729201393064</v>
+        <v>1.052129676827576</v>
       </c>
       <c r="C2">
-        <v>0.6341432671375173</v>
+        <v>0.1569570134444831</v>
       </c>
       <c r="D2">
-        <v>0.3376011780608366</v>
+        <v>0.3835497823945531</v>
       </c>
       <c r="E2">
-        <v>1.450376150062453</v>
+        <v>1.357593437121125</v>
       </c>
       <c r="F2">
-        <v>6.576615509796511</v>
+        <v>6.666906362912187</v>
       </c>
       <c r="G2">
-        <v>0.0007648350851080618</v>
+        <v>0.0008096947775747251</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7164006641164562</v>
+        <v>1.113290759480577</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.18431899608396</v>
+        <v>0.9019831478354661</v>
       </c>
       <c r="C3">
-        <v>0.5389349034105635</v>
+        <v>0.1330704288444764</v>
       </c>
       <c r="D3">
-        <v>0.2972431300560743</v>
+        <v>0.3443756960829631</v>
       </c>
       <c r="E3">
-        <v>1.230040603239885</v>
+        <v>1.15777369584076</v>
       </c>
       <c r="F3">
-        <v>5.731267656202021</v>
+        <v>5.893774240308005</v>
       </c>
       <c r="G3">
-        <v>0.0007772400570888311</v>
+        <v>0.0008194908149735037</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6098668260084139</v>
+        <v>0.9505662419902876</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.959956980045945</v>
+        <v>0.8124405767887595</v>
       </c>
       <c r="C4">
-        <v>0.4824944494080796</v>
+        <v>0.1189133609800308</v>
       </c>
       <c r="D4">
-        <v>0.273251248204005</v>
+        <v>0.3207610687498459</v>
       </c>
       <c r="E4">
-        <v>1.099919940438994</v>
+        <v>1.038672359169553</v>
       </c>
       <c r="F4">
-        <v>5.228104479565815</v>
+        <v>5.428691781935385</v>
       </c>
       <c r="G4">
-        <v>0.0007849449375860959</v>
+        <v>0.0008256124929220121</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5465776221442624</v>
+        <v>0.8536503780360363</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.870076128602392</v>
+        <v>0.7765242131108039</v>
       </c>
       <c r="C5">
-        <v>0.4599113374698334</v>
+        <v>0.1132516047978527</v>
       </c>
       <c r="D5">
-        <v>0.2636381352731405</v>
+        <v>0.3112275577032761</v>
       </c>
       <c r="E5">
-        <v>1.047959628823932</v>
+        <v>0.9908895563896039</v>
       </c>
       <c r="F5">
-        <v>5.02640568933603</v>
+        <v>5.241210436524085</v>
       </c>
       <c r="G5">
-        <v>0.0007881126985207292</v>
+        <v>0.0008281371152418485</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5212308444400691</v>
+        <v>0.8148012923970782</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.855236897347226</v>
+        <v>0.7705924099918207</v>
       </c>
       <c r="C6">
-        <v>0.4561842038415307</v>
+        <v>0.1123173990443718</v>
       </c>
       <c r="D6">
-        <v>0.2620508575321736</v>
+        <v>0.3096493770346314</v>
       </c>
       <c r="E6">
-        <v>1.039389803306236</v>
+        <v>0.9829966224341433</v>
       </c>
       <c r="F6">
-        <v>4.993098371043374</v>
+        <v>5.210192458903663</v>
       </c>
       <c r="G6">
-        <v>0.0007886405457903045</v>
+        <v>0.0008285582230532625</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5170464662676011</v>
+        <v>0.8083864291577072</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.958738917492411</v>
+        <v>0.8119539916251028</v>
       </c>
       <c r="C7">
-        <v>0.4821883080760188</v>
+        <v>0.1188365954646571</v>
       </c>
       <c r="D7">
-        <v>0.2731209814104574</v>
+        <v>0.3206321592299446</v>
       </c>
       <c r="E7">
-        <v>1.099215157176175</v>
+        <v>1.038025084428597</v>
       </c>
       <c r="F7">
-        <v>5.225371554367769</v>
+        <v>5.426155537877065</v>
       </c>
       <c r="G7">
-        <v>0.0007849875388041502</v>
+        <v>0.0008256464154972671</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.546234098002401</v>
+        <v>0.8531239694905821</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.429871006348037</v>
+        <v>0.9997502452806373</v>
       </c>
       <c r="C8">
-        <v>0.6008376407044409</v>
+        <v>0.1486019065619075</v>
       </c>
       <c r="D8">
-        <v>0.3234998812875745</v>
+        <v>0.3699384592675159</v>
       </c>
       <c r="E8">
-        <v>1.373179066004596</v>
+        <v>1.287854009087965</v>
       </c>
       <c r="F8">
-        <v>6.281422597404173</v>
+        <v>6.398093348124803</v>
       </c>
       <c r="G8">
-        <v>0.0007690977667398318</v>
+        <v>0.0008130522552622148</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6791688709651993</v>
+        <v>1.056491605374163</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.428801054629218</v>
+        <v>1.393864007421399</v>
       </c>
       <c r="C9">
-        <v>0.8544906817811295</v>
+        <v>0.2121031840053291</v>
       </c>
       <c r="D9">
-        <v>0.4304056562372551</v>
+        <v>0.4711688346560408</v>
       </c>
       <c r="E9">
-        <v>1.964422440663867</v>
+        <v>1.814215188780054</v>
       </c>
       <c r="F9">
-        <v>8.51342429387455</v>
+        <v>8.399874033029931</v>
       </c>
       <c r="G9">
-        <v>0.0007383239734199506</v>
+        <v>0.0007890417000356086</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9615930941535566</v>
+        <v>1.484760083567096</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.237504900792317</v>
+        <v>1.707143653822556</v>
       </c>
       <c r="C10">
-        <v>1.062454476307153</v>
+        <v>0.2637055365538288</v>
       </c>
       <c r="D10">
-        <v>0.5171335342392922</v>
+        <v>0.5500426830336949</v>
       </c>
       <c r="E10">
-        <v>2.455191929856227</v>
+        <v>2.236599690106232</v>
       </c>
       <c r="F10">
-        <v>10.31234712162677</v>
+        <v>9.960768156902532</v>
       </c>
       <c r="G10">
-        <v>0.0007154013786012303</v>
+        <v>0.000771554742283298</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.190949397531497</v>
+        <v>1.826762427917998</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.6305455887221</v>
+        <v>1.857037290273411</v>
       </c>
       <c r="C11">
-        <v>1.164497035993321</v>
+        <v>0.288772608632442</v>
       </c>
       <c r="D11">
-        <v>0.559350957321783</v>
+        <v>0.5873779627337683</v>
       </c>
       <c r="E11">
-        <v>2.6981853053869</v>
+        <v>2.44037865472437</v>
       </c>
       <c r="F11">
-        <v>11.18369450461557</v>
+        <v>10.69919661987865</v>
       </c>
       <c r="G11">
-        <v>0.0007047374829407538</v>
+        <v>0.0007635592170686392</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.302684860769773</v>
+        <v>1.990920289217797</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.78401251623211</v>
+        <v>1.915090552098945</v>
       </c>
       <c r="C12">
-        <v>1.204524605925258</v>
+        <v>0.2985486210215811</v>
       </c>
       <c r="D12">
-        <v>0.5758469944312594</v>
+        <v>0.6017740501192463</v>
       </c>
       <c r="E12">
-        <v>2.793924703419734</v>
+        <v>2.519633377061979</v>
       </c>
       <c r="F12">
-        <v>11.52335512343467</v>
+        <v>10.98379932442242</v>
       </c>
       <c r="G12">
-        <v>0.0007006462163092308</v>
+        <v>0.0007605180502391945</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.346363514911303</v>
+        <v>2.054591086360773</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.750735285615804</v>
+        <v>1.902526114299889</v>
       </c>
       <c r="C13">
-        <v>1.195836189723735</v>
+        <v>0.2964295680993132</v>
       </c>
       <c r="D13">
-        <v>0.5722694948052833</v>
+        <v>0.5986612401920297</v>
       </c>
       <c r="E13">
-        <v>2.773122629759172</v>
+        <v>2.502463937847182</v>
       </c>
       <c r="F13">
-        <v>11.44973209138004</v>
+        <v>10.92226757693061</v>
       </c>
       <c r="G13">
-        <v>0.0007015300710868271</v>
+        <v>0.0007611737551851405</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.336889931407967</v>
+        <v>2.040806403204954</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.643071712214464</v>
+        <v>1.861785990427222</v>
       </c>
       <c r="C14">
-        <v>1.167760181957988</v>
+        <v>0.289570846997961</v>
       </c>
       <c r="D14">
-        <v>0.5606971339039717</v>
+        <v>0.5885568530745502</v>
       </c>
       <c r="E14">
-        <v>2.705981108212299</v>
+        <v>2.446854420328052</v>
       </c>
       <c r="F14">
-        <v>11.21143013440155</v>
+        <v>10.72250557494283</v>
       </c>
       <c r="G14">
-        <v>0.0007044020856382303</v>
+        <v>0.0007633093367391972</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.306248876540479</v>
+        <v>1.996126533223503</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.577762905206669</v>
+        <v>1.837007349563834</v>
       </c>
       <c r="C15">
-        <v>1.150754394809155</v>
+        <v>0.285408444109521</v>
       </c>
       <c r="D15">
-        <v>0.5536789105610467</v>
+        <v>0.5824028348053787</v>
       </c>
       <c r="E15">
-        <v>2.665371048332901</v>
+        <v>2.413077853375924</v>
       </c>
       <c r="F15">
-        <v>11.0667983439094</v>
+        <v>10.60082314040176</v>
       </c>
       <c r="G15">
-        <v>0.000706153701521586</v>
+        <v>0.0007646154408275723</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.287668869878615</v>
+        <v>1.96896427526346</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.212405182367831</v>
+        <v>1.697514952805676</v>
       </c>
       <c r="C16">
-        <v>1.055960415256948</v>
+        <v>0.2621038066003223</v>
       </c>
       <c r="D16">
-        <v>0.5144390017234741</v>
+        <v>0.5476359794945438</v>
       </c>
       <c r="E16">
-        <v>2.439778312251747</v>
+        <v>2.223549763485096</v>
       </c>
       <c r="F16">
-        <v>10.25663396647644</v>
+        <v>9.913153810420425</v>
       </c>
       <c r="G16">
-        <v>0.0007160920237280117</v>
+        <v>0.0007720758358789388</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.183820065552226</v>
+        <v>1.81622915615236</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.995348840765928</v>
+        <v>1.613981549730539</v>
       </c>
       <c r="C17">
-        <v>0.9999101266909065</v>
+        <v>0.2482505205536683</v>
       </c>
       <c r="D17">
-        <v>0.4911447919511147</v>
+        <v>0.5267122677273619</v>
       </c>
       <c r="E17">
-        <v>2.306986760556057</v>
+        <v>2.110527577048771</v>
       </c>
       <c r="F17">
-        <v>9.774508736886133</v>
+        <v>9.499143656146686</v>
       </c>
       <c r="G17">
-        <v>0.0007221163748948517</v>
+        <v>0.0007766371923451533</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.122197088197368</v>
+        <v>1.724906846344368</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.872797193144436</v>
+        <v>1.566613946260873</v>
       </c>
       <c r="C18">
-        <v>0.9683482394984821</v>
+        <v>0.2404285478753252</v>
       </c>
       <c r="D18">
-        <v>0.4779985924415087</v>
+        <v>0.5148110721598869</v>
       </c>
       <c r="E18">
-        <v>2.232400448179362</v>
+        <v>2.046585689952607</v>
       </c>
       <c r="F18">
-        <v>9.502040413583728</v>
+        <v>9.263623812979631</v>
       </c>
       <c r="G18">
-        <v>0.0007255605865867905</v>
+        <v>0.0007792574722335715</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.087427422245938</v>
+        <v>1.673168937342979</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.831670796956246</v>
+        <v>1.550686336329306</v>
       </c>
       <c r="C19">
-        <v>0.9577699622755915</v>
+        <v>0.2378037675682236</v>
       </c>
       <c r="D19">
-        <v>0.4735878814882142</v>
+        <v>0.5108031312541357</v>
       </c>
       <c r="E19">
-        <v>2.207431936679797</v>
+        <v>2.025107873437094</v>
       </c>
       <c r="F19">
-        <v>9.410563736445397</v>
+        <v>9.184304099551809</v>
       </c>
       <c r="G19">
-        <v>0.0007267236563865964</v>
+        <v>0.0007801442967552141</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.075762936546312</v>
+        <v>1.655779271451053</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.01821105876553</v>
+        <v>1.622802064658089</v>
       </c>
       <c r="C20">
-        <v>1.005804732886105</v>
+        <v>0.2497097493841522</v>
       </c>
       <c r="D20">
-        <v>0.4935977067934232</v>
+        <v>0.5289254841603679</v>
       </c>
       <c r="E20">
-        <v>2.320931663211809</v>
+        <v>2.122445992970981</v>
       </c>
       <c r="F20">
-        <v>9.825317886511186</v>
+        <v>9.542939881502377</v>
       </c>
       <c r="G20">
-        <v>0.0007214773500907601</v>
+        <v>0.0007761520189925917</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.128685257051472</v>
+        <v>1.734544867043411</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.674559852353582</v>
+        <v>1.873715223758353</v>
       </c>
       <c r="C21">
-        <v>1.175966151882818</v>
+        <v>0.291577227004197</v>
       </c>
       <c r="D21">
-        <v>0.5640813433842595</v>
+        <v>0.5915173178680959</v>
       </c>
       <c r="E21">
-        <v>2.7255926401332</v>
+        <v>2.463127828339324</v>
       </c>
       <c r="F21">
-        <v>11.28114238357091</v>
+        <v>10.78103746175066</v>
       </c>
       <c r="G21">
-        <v>0.0007035601267961375</v>
+        <v>0.0007626824975631162</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.315208934412965</v>
+        <v>2.009206706377768</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.131227979024231</v>
+        <v>2.045374376465247</v>
       </c>
       <c r="C22">
-        <v>1.295482870595606</v>
+        <v>0.3206280019124108</v>
       </c>
       <c r="D22">
-        <v>0.6131928436602152</v>
+        <v>0.6339586508003094</v>
       </c>
       <c r="E22">
-        <v>3.012413397039978</v>
+        <v>2.698221660296269</v>
       </c>
       <c r="F22">
-        <v>12.29059612756765</v>
+        <v>11.61976010139051</v>
       </c>
       <c r="G22">
-        <v>0.0006915272946219874</v>
+        <v>0.000753796350698414</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.445294074362025</v>
+        <v>2.197673890847028</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.884540416663981</v>
+        <v>1.952965557472169</v>
       </c>
       <c r="C23">
-        <v>1.230802162743288</v>
+        <v>0.3049472921077694</v>
       </c>
       <c r="D23">
-        <v>0.5866561997588633</v>
+        <v>0.6111478389227329</v>
       </c>
       <c r="E23">
-        <v>2.856910501887995</v>
+        <v>2.571445812703288</v>
       </c>
       <c r="F23">
-        <v>11.74566975133911</v>
+        <v>11.16906974423659</v>
       </c>
       <c r="G23">
-        <v>0.0006979869213900177</v>
+        <v>0.0007585495873713658</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.374990823131228</v>
+        <v>2.096159394698674</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.00786815464096</v>
+        <v>1.618812280646722</v>
       </c>
       <c r="C24">
-        <v>1.003137741401872</v>
+        <v>0.2490495922408229</v>
       </c>
       <c r="D24">
-        <v>0.4924879858706674</v>
+        <v>0.5279244934865233</v>
       </c>
       <c r="E24">
-        <v>2.314621761548594</v>
+        <v>2.117054480022119</v>
       </c>
       <c r="F24">
-        <v>9.802332541760251</v>
+        <v>9.52313188609196</v>
       </c>
       <c r="G24">
-        <v>0.0007217663120337621</v>
+        <v>0.0007763713718533793</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.125749927299736</v>
+        <v>1.730185156560879</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.14791097102858</v>
+        <v>1.28373366740388</v>
       </c>
       <c r="C25">
-        <v>0.782834915723555</v>
+        <v>0.1942062099907957</v>
       </c>
       <c r="D25">
-        <v>0.4003232536303329</v>
+        <v>0.4431343010859905</v>
       </c>
       <c r="E25">
-        <v>1.796613406499901</v>
+        <v>1.666677949286878</v>
       </c>
       <c r="F25">
-        <v>7.88684442031257</v>
+        <v>7.845094480675783</v>
       </c>
       <c r="G25">
-        <v>0.0007466572937374875</v>
+        <v>0.0007954885237948279</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8820877268600498</v>
+        <v>1.364871185423112</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_33/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.052129676827576</v>
+        <v>1.00173707717093</v>
       </c>
       <c r="C2">
-        <v>0.1569570134444831</v>
+        <v>0.2375386328138944</v>
       </c>
       <c r="D2">
-        <v>0.3835497823945531</v>
+        <v>0.04262944957139325</v>
       </c>
       <c r="E2">
-        <v>1.357593437121125</v>
+        <v>1.292529700449975</v>
       </c>
       <c r="F2">
-        <v>6.666906362912187</v>
+        <v>0.8738756503699534</v>
       </c>
       <c r="G2">
-        <v>0.0008096947775747251</v>
+        <v>0.8000697832002714</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.004867205542824826</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.544511394713922</v>
       </c>
       <c r="K2">
-        <v>1.113290759480577</v>
+        <v>0.496091686674113</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.205542342739932</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9019831478354661</v>
+        <v>0.8713466920683857</v>
       </c>
       <c r="C3">
-        <v>0.1330704288444764</v>
+        <v>0.2070762234084071</v>
       </c>
       <c r="D3">
-        <v>0.3443756960829631</v>
+        <v>0.04058367506990379</v>
       </c>
       <c r="E3">
-        <v>1.15777369584076</v>
+        <v>1.121214248116601</v>
       </c>
       <c r="F3">
-        <v>5.893774240308005</v>
+        <v>0.8101558678245055</v>
       </c>
       <c r="G3">
-        <v>0.0008194908149735037</v>
+        <v>0.7431592832583078</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.002712137937859627</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5234738087792721</v>
       </c>
       <c r="K3">
-        <v>0.9505662419902876</v>
+        <v>0.4789883830865236</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.04905437756571</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8124405767887595</v>
+        <v>0.7914428838325307</v>
       </c>
       <c r="C4">
-        <v>0.1189133609800308</v>
+        <v>0.1884281164099377</v>
       </c>
       <c r="D4">
-        <v>0.3207610687498459</v>
+        <v>0.03929605884377807</v>
       </c>
       <c r="E4">
-        <v>1.038672359169553</v>
+        <v>1.016537946856673</v>
       </c>
       <c r="F4">
-        <v>5.428691781935385</v>
+        <v>0.7722153104130598</v>
       </c>
       <c r="G4">
-        <v>0.0008256124929220121</v>
+        <v>0.7093605476145086</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.001670274499210533</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5112148164846246</v>
       </c>
       <c r="K4">
-        <v>0.8536503780360363</v>
+        <v>0.4692037762733889</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.9531788965315116</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7765242131108039</v>
+        <v>0.7589071348753578</v>
       </c>
       <c r="C5">
-        <v>0.1132516047978527</v>
+        <v>0.1808389256475778</v>
       </c>
       <c r="D5">
-        <v>0.3112275577032761</v>
+        <v>0.0387635446962129</v>
       </c>
       <c r="E5">
-        <v>0.9908895563896039</v>
+        <v>0.9739850728110184</v>
       </c>
       <c r="F5">
-        <v>5.241210436524085</v>
+        <v>0.7570299928046467</v>
       </c>
       <c r="G5">
-        <v>0.0008281371152418485</v>
+        <v>0.6958530363879447</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.001311259841999535</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5063746023800633</v>
       </c>
       <c r="K5">
-        <v>0.8148012923970782</v>
+        <v>0.4653856807613934</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.9141439549566428</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7705924099918207</v>
+        <v>0.7535057687338167</v>
       </c>
       <c r="C6">
-        <v>0.1123173990443718</v>
+        <v>0.1795792418850795</v>
       </c>
       <c r="D6">
-        <v>0.3096493770346314</v>
+        <v>0.03867465364712075</v>
       </c>
       <c r="E6">
-        <v>0.9829966224341433</v>
+        <v>0.9669247435326156</v>
       </c>
       <c r="F6">
-        <v>5.210192458903663</v>
+        <v>0.7545245199235069</v>
       </c>
       <c r="G6">
-        <v>0.0008285582230532625</v>
+        <v>0.6936255516890384</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.001255457555087602</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5055799910418841</v>
       </c>
       <c r="K6">
-        <v>0.8083864291577072</v>
+        <v>0.4647615961451237</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.9076638642768842</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8119539916251028</v>
+        <v>0.7910040086767367</v>
       </c>
       <c r="C7">
-        <v>0.1188365954646571</v>
+        <v>0.1883257302899892</v>
       </c>
       <c r="D7">
-        <v>0.3206321592299446</v>
+        <v>0.03928890859101841</v>
       </c>
       <c r="E7">
-        <v>1.038025084428597</v>
+        <v>1.01596367694799</v>
       </c>
       <c r="F7">
-        <v>5.426155537877065</v>
+        <v>0.7720094274249121</v>
       </c>
       <c r="G7">
-        <v>0.0008256464154972671</v>
+        <v>0.7091773329129154</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.00166517397380006</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5111489232935043</v>
       </c>
       <c r="K7">
-        <v>0.8531239694905821</v>
+        <v>0.4691516131781626</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.9526523377756462</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9997502452806373</v>
+        <v>0.9567375001246603</v>
       </c>
       <c r="C8">
-        <v>0.1486019065619075</v>
+        <v>0.2270210904856782</v>
       </c>
       <c r="D8">
-        <v>0.3699384592675159</v>
+        <v>0.0419306762722087</v>
       </c>
       <c r="E8">
-        <v>1.287854009087965</v>
+        <v>1.233338236750967</v>
       </c>
       <c r="F8">
-        <v>6.398093348124803</v>
+        <v>0.8516458698687757</v>
       </c>
       <c r="G8">
-        <v>0.0008130522552622148</v>
+        <v>0.7801958441403372</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.004062539892473405</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5371147957910409</v>
       </c>
       <c r="K8">
-        <v>1.056491605374163</v>
+        <v>0.4900388414775563</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.151531108973245</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.393864007421399</v>
+        <v>1.283655451293725</v>
       </c>
       <c r="C9">
-        <v>0.2121031840053291</v>
+        <v>0.3035431563611439</v>
       </c>
       <c r="D9">
-        <v>0.4711688346560408</v>
+        <v>0.04685617729641933</v>
       </c>
       <c r="E9">
-        <v>1.814215188780054</v>
+        <v>1.664892803867417</v>
       </c>
       <c r="F9">
-        <v>8.399874033029931</v>
+        <v>1.018256017141482</v>
       </c>
       <c r="G9">
-        <v>0.0007890417000356086</v>
+        <v>0.9296044275487105</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.01124283272740337</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5937402411567092</v>
       </c>
       <c r="K9">
-        <v>1.484760083567096</v>
+        <v>0.5372164251201497</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.544046831172295</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.707143653822556</v>
+        <v>1.526681558150329</v>
       </c>
       <c r="C10">
-        <v>0.2637055365538288</v>
+        <v>0.3576396852781158</v>
       </c>
       <c r="D10">
-        <v>0.5500426830336949</v>
+        <v>0.05146480973431267</v>
       </c>
       <c r="E10">
-        <v>2.236599690106232</v>
+        <v>1.886345568304719</v>
       </c>
       <c r="F10">
-        <v>9.960768156902532</v>
+        <v>1.127058215581343</v>
       </c>
       <c r="G10">
-        <v>0.000771554742283298</v>
+        <v>1.023219664386247</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.01781601095784824</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6276517628878935</v>
       </c>
       <c r="K10">
-        <v>1.826762427917998</v>
+        <v>0.563648041800846</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.832129071628287</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.857037290273411</v>
+        <v>1.644152733919071</v>
       </c>
       <c r="C11">
-        <v>0.288772608632442</v>
+        <v>0.3581748882609759</v>
       </c>
       <c r="D11">
-        <v>0.5873779627337683</v>
+        <v>0.06518406471585791</v>
       </c>
       <c r="E11">
-        <v>2.44037865472437</v>
+        <v>1.21132372705469</v>
       </c>
       <c r="F11">
-        <v>10.69919661987865</v>
+        <v>0.9971334211235785</v>
       </c>
       <c r="G11">
-        <v>0.0007635592170686392</v>
+        <v>0.8687308485489496</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.03393874533294294</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5448640741720538</v>
       </c>
       <c r="K11">
-        <v>1.990920289217797</v>
+        <v>0.4712603009895773</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.936988690957833</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.915090552098945</v>
+        <v>1.692792157077264</v>
       </c>
       <c r="C12">
-        <v>0.2985486210215811</v>
+        <v>0.347424101275152</v>
       </c>
       <c r="D12">
-        <v>0.6017740501192463</v>
+        <v>0.07799286941204286</v>
       </c>
       <c r="E12">
-        <v>2.519633377061979</v>
+        <v>0.7256601385834642</v>
       </c>
       <c r="F12">
-        <v>10.98379932442242</v>
+        <v>0.8711988586302368</v>
       </c>
       <c r="G12">
-        <v>0.0007605180502391945</v>
+        <v>0.7293437507516103</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.07034513667624509</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4726476184849275</v>
       </c>
       <c r="K12">
-        <v>2.054591086360773</v>
+        <v>0.3946620199349553</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.964890077212289</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.902526114299889</v>
+        <v>1.690808748407335</v>
       </c>
       <c r="C13">
-        <v>0.2964295680993132</v>
+        <v>0.327508058664904</v>
       </c>
       <c r="D13">
-        <v>0.5986612401920297</v>
+        <v>0.09059564327102976</v>
       </c>
       <c r="E13">
-        <v>2.502463937847182</v>
+        <v>0.3584419074943028</v>
       </c>
       <c r="F13">
-        <v>10.92226757693061</v>
+        <v>0.7411617746756889</v>
       </c>
       <c r="G13">
-        <v>0.0007611737551851405</v>
+        <v>0.593587862690427</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1237892441776864</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4043005018446166</v>
       </c>
       <c r="K13">
-        <v>2.040806403204954</v>
+        <v>0.3255458939718103</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.934983589551081</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.861785990427222</v>
+        <v>1.6666192692484</v>
       </c>
       <c r="C14">
-        <v>0.289570846997961</v>
+        <v>0.3096250338219591</v>
       </c>
       <c r="D14">
-        <v>0.5885568530745502</v>
+        <v>0.09944806479160917</v>
       </c>
       <c r="E14">
-        <v>2.446854420328052</v>
+        <v>0.1735582918239444</v>
       </c>
       <c r="F14">
-        <v>10.72250557494283</v>
+        <v>0.6499751032288401</v>
       </c>
       <c r="G14">
-        <v>0.0007633093367391972</v>
+        <v>0.5023922066038153</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1716177267362156</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3591821882710775</v>
       </c>
       <c r="K14">
-        <v>1.996126533223503</v>
+        <v>0.2817441949618775</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.888176255270565</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.837007349563834</v>
+        <v>1.649799377867112</v>
       </c>
       <c r="C15">
-        <v>0.285408444109521</v>
+        <v>0.3033301201439258</v>
       </c>
       <c r="D15">
-        <v>0.5824028348053787</v>
+        <v>0.1012299452491661</v>
       </c>
       <c r="E15">
-        <v>2.413077853375924</v>
+        <v>0.1374461566410687</v>
       </c>
       <c r="F15">
-        <v>10.60082314040176</v>
+        <v>0.6261851173641801</v>
       </c>
       <c r="G15">
-        <v>0.0007646154408275723</v>
+        <v>0.4797146094088589</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1836148988248283</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3484552489823471</v>
       </c>
       <c r="K15">
-        <v>1.96896427526346</v>
+        <v>0.2718138897252054</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.864457057949522</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.697514952805676</v>
+        <v>1.544986412592692</v>
       </c>
       <c r="C16">
-        <v>0.2621038066003223</v>
+        <v>0.2847943678305569</v>
       </c>
       <c r="D16">
-        <v>0.5476359794945438</v>
+        <v>0.09607415811949238</v>
       </c>
       <c r="E16">
-        <v>2.223549763485096</v>
+        <v>0.1332127924195277</v>
       </c>
       <c r="F16">
-        <v>9.913153810420425</v>
+        <v>0.607777801589009</v>
       </c>
       <c r="G16">
-        <v>0.0007720758358789388</v>
+        <v>0.4691833251960986</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1689640118997318</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3484255222375907</v>
       </c>
       <c r="K16">
-        <v>1.81622915615236</v>
+        <v>0.274914314563933</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.7469613127233</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.613981549730539</v>
+        <v>1.477651015343582</v>
       </c>
       <c r="C17">
-        <v>0.2482505205536683</v>
+        <v>0.2799554765761627</v>
       </c>
       <c r="D17">
-        <v>0.5267122677273619</v>
+        <v>0.08736867518133806</v>
       </c>
       <c r="E17">
-        <v>2.110527577048771</v>
+        <v>0.2142234477599843</v>
       </c>
       <c r="F17">
-        <v>9.499143656146686</v>
+        <v>0.6413356389781626</v>
       </c>
       <c r="G17">
-        <v>0.0007766371923451533</v>
+        <v>0.5084292040604481</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1304488594882827</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3719472889274016</v>
       </c>
       <c r="K17">
-        <v>1.724906846344368</v>
+        <v>0.3000223172753529</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.681785543089916</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.566613946260873</v>
+        <v>1.434973467390193</v>
       </c>
       <c r="C18">
-        <v>0.2404285478753252</v>
+        <v>0.2864882476422679</v>
       </c>
       <c r="D18">
-        <v>0.5148110721598869</v>
+        <v>0.07557169410206654</v>
       </c>
       <c r="E18">
-        <v>2.046585689952607</v>
+        <v>0.4403470769922961</v>
       </c>
       <c r="F18">
-        <v>9.263623812979631</v>
+        <v>0.7269219229511208</v>
       </c>
       <c r="G18">
-        <v>0.0007792574722335715</v>
+        <v>0.6004116307925926</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07809096420536576</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4208713924396648</v>
       </c>
       <c r="K18">
-        <v>1.673168937342979</v>
+        <v>0.3503678878370096</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.65410444657519</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.550686336329306</v>
+        <v>1.415686124794888</v>
       </c>
       <c r="C19">
-        <v>0.2378037675682236</v>
+        <v>0.3021309857333279</v>
       </c>
       <c r="D19">
-        <v>0.5108031312541357</v>
+        <v>0.06345938788414429</v>
       </c>
       <c r="E19">
-        <v>2.025107873437094</v>
+        <v>0.8640030874550177</v>
       </c>
       <c r="F19">
-        <v>9.184304099551809</v>
+        <v>0.8546288021844077</v>
       </c>
       <c r="G19">
-        <v>0.0007801442967552141</v>
+        <v>0.7375247711401158</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03486968370911114</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.490930385450298</v>
       </c>
       <c r="K19">
-        <v>1.655779271451053</v>
+        <v>0.423090813354662</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.659054716101252</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.622802064658089</v>
+        <v>1.462714196438981</v>
       </c>
       <c r="C20">
-        <v>0.2497097493841522</v>
+        <v>0.3432711431432267</v>
       </c>
       <c r="D20">
-        <v>0.5289254841603679</v>
+        <v>0.05030569114241246</v>
       </c>
       <c r="E20">
-        <v>2.122445992970981</v>
+        <v>1.823750796127996</v>
       </c>
       <c r="F20">
-        <v>9.542939881502377</v>
+        <v>1.097017442870083</v>
       </c>
       <c r="G20">
-        <v>0.0007761520189925917</v>
+        <v>0.9970775911841088</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.01592019972108272</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6179445237482355</v>
       </c>
       <c r="K20">
-        <v>1.734544867043411</v>
+        <v>0.5558336145241682</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.756133529337774</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.873715223758353</v>
+        <v>1.649188792502116</v>
       </c>
       <c r="C21">
-        <v>0.291577227004197</v>
+        <v>0.3894283199023505</v>
       </c>
       <c r="D21">
-        <v>0.5915173178680959</v>
+        <v>0.05201594113927399</v>
       </c>
       <c r="E21">
-        <v>2.463127828339324</v>
+        <v>2.151314306901241</v>
       </c>
       <c r="F21">
-        <v>10.78103746175066</v>
+        <v>1.216775800137924</v>
       </c>
       <c r="G21">
-        <v>0.0007626824975631162</v>
+        <v>1.108811248634197</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02256503929840958</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6638984660800702</v>
       </c>
       <c r="K21">
-        <v>2.009206706377768</v>
+        <v>0.5976089330628085</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.983305993875831</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.045374376465247</v>
+        <v>1.772149803553788</v>
       </c>
       <c r="C22">
-        <v>0.3206280019124108</v>
+        <v>0.4183994586064443</v>
       </c>
       <c r="D22">
-        <v>0.6339586508003094</v>
+        <v>0.05368346810801228</v>
       </c>
       <c r="E22">
-        <v>2.698221660296269</v>
+        <v>2.315789443383196</v>
       </c>
       <c r="F22">
-        <v>11.61976010139051</v>
+        <v>1.286076805601127</v>
       </c>
       <c r="G22">
-        <v>0.000753796350698414</v>
+        <v>1.171630714097006</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02707678202701835</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6888942529055555</v>
       </c>
       <c r="K22">
-        <v>2.197673890847028</v>
+        <v>0.6194950337707112</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.131163393404108</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.952965557472169</v>
+        <v>1.706446825565308</v>
       </c>
       <c r="C23">
-        <v>0.3049472921077694</v>
+        <v>0.4029138868872622</v>
       </c>
       <c r="D23">
-        <v>0.6111478389227329</v>
+        <v>0.05279637366839296</v>
       </c>
       <c r="E23">
-        <v>2.571445812703288</v>
+        <v>2.227852578517542</v>
       </c>
       <c r="F23">
-        <v>11.16906974423659</v>
+        <v>1.248897399459523</v>
       </c>
       <c r="G23">
-        <v>0.0007585495873713658</v>
+        <v>1.137912892334924</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02462376860450721</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6754558780394007</v>
       </c>
       <c r="K23">
-        <v>2.096159394698674</v>
+        <v>0.6077076344774568</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.052151121213313</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.618812280646722</v>
+        <v>1.45915180026833</v>
       </c>
       <c r="C24">
-        <v>0.2490495922408229</v>
+        <v>0.34473353821366</v>
       </c>
       <c r="D24">
-        <v>0.5279244934865233</v>
+        <v>0.04937369973524497</v>
       </c>
       <c r="E24">
-        <v>2.117054480022119</v>
+        <v>1.897943982799006</v>
       </c>
       <c r="F24">
-        <v>9.52313188609196</v>
+        <v>1.112103766104809</v>
       </c>
       <c r="G24">
-        <v>0.0007763713718533793</v>
+        <v>1.014177254256566</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.01627515849148997</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6266109860129063</v>
       </c>
       <c r="K24">
-        <v>1.730185156560879</v>
+        <v>0.5652987874927362</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.754887512177561</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,51 +1634,63 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.28373366740388</v>
+        <v>1.194908940291498</v>
       </c>
       <c r="C25">
-        <v>0.1942062099907957</v>
+        <v>0.2827438312451704</v>
       </c>
       <c r="D25">
-        <v>0.4431343010859905</v>
+        <v>0.04555166661580046</v>
       </c>
       <c r="E25">
-        <v>1.666677949286878</v>
+        <v>1.547398717905764</v>
       </c>
       <c r="F25">
-        <v>7.845094480675783</v>
+        <v>0.971910319250199</v>
       </c>
       <c r="G25">
-        <v>0.0007954885237948279</v>
+        <v>0.8879433783230581</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.008998926940471469</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5777392674542767</v>
       </c>
       <c r="K25">
-        <v>1.364871185423112</v>
+        <v>0.5237100839143238</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.437462545096565</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_33/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.00173707717093</v>
+        <v>0.9790465233553789</v>
       </c>
       <c r="C2">
-        <v>0.2375386328138944</v>
+        <v>0.2824502489808651</v>
       </c>
       <c r="D2">
-        <v>0.04262944957139325</v>
+        <v>0.04782958389478154</v>
       </c>
       <c r="E2">
-        <v>1.292529700449975</v>
+        <v>1.293590202863953</v>
       </c>
       <c r="F2">
-        <v>0.8738756503699534</v>
+        <v>0.7543123473029638</v>
       </c>
       <c r="G2">
-        <v>0.8000697832002714</v>
+        <v>0.6475675654450868</v>
       </c>
       <c r="H2">
-        <v>0.004867205542824826</v>
+        <v>0.004966218684192891</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.544511394713922</v>
+        <v>0.5119687971585449</v>
       </c>
       <c r="K2">
-        <v>0.496091686674113</v>
+        <v>0.3996104123559618</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2039667979165998</v>
       </c>
       <c r="M2">
-        <v>1.205542342739932</v>
+        <v>0.1070959257309347</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.242623975447913</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8713466920683857</v>
+        <v>0.8553403318903179</v>
       </c>
       <c r="C3">
-        <v>0.2070762234084071</v>
+        <v>0.2428222298624689</v>
       </c>
       <c r="D3">
-        <v>0.04058367506990379</v>
+        <v>0.04426783600471751</v>
       </c>
       <c r="E3">
-        <v>1.121214248116601</v>
+        <v>1.123480648734613</v>
       </c>
       <c r="F3">
-        <v>0.8101558678245055</v>
+        <v>0.7073604064935566</v>
       </c>
       <c r="G3">
-        <v>0.7431592832583078</v>
+        <v>0.6104139606991481</v>
       </c>
       <c r="H3">
-        <v>0.002712137937859627</v>
+        <v>0.002888029649332546</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5234738087792721</v>
+        <v>0.4956989447025535</v>
       </c>
       <c r="K3">
-        <v>0.4789883830865236</v>
+        <v>0.3932810606523489</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2071722705048167</v>
       </c>
       <c r="M3">
-        <v>1.04905437756571</v>
+        <v>0.09977076182679312</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.080803972483551</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7914428838325307</v>
+        <v>0.7793364656608048</v>
       </c>
       <c r="C4">
-        <v>0.1884281164099377</v>
+        <v>0.2186785712581241</v>
       </c>
       <c r="D4">
-        <v>0.03929605884377807</v>
+        <v>0.0420670360976132</v>
       </c>
       <c r="E4">
-        <v>1.016537946856673</v>
+        <v>1.019421622713594</v>
       </c>
       <c r="F4">
-        <v>0.7722153104130598</v>
+        <v>0.6793475177428547</v>
       </c>
       <c r="G4">
-        <v>0.7093605476145086</v>
+        <v>0.588553334858517</v>
       </c>
       <c r="H4">
-        <v>0.001670274499210533</v>
+        <v>0.001859976814682307</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5112148164846246</v>
+        <v>0.4859482169018463</v>
       </c>
       <c r="K4">
-        <v>0.4692037762733889</v>
+        <v>0.3898435130248359</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2092081543143927</v>
       </c>
       <c r="M4">
-        <v>0.9531788965315116</v>
+        <v>0.09607424630054595</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9816091223231922</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7589071348753578</v>
+        <v>0.7483430519868932</v>
       </c>
       <c r="C5">
-        <v>0.1808389256475778</v>
+        <v>0.2088822499504204</v>
       </c>
       <c r="D5">
-        <v>0.0387635446962129</v>
+        <v>0.04116674362758133</v>
       </c>
       <c r="E5">
-        <v>0.9739850728110184</v>
+        <v>0.9770928409620439</v>
       </c>
       <c r="F5">
-        <v>0.7570299928046467</v>
+        <v>0.6681207078319602</v>
       </c>
       <c r="G5">
-        <v>0.6958530363879447</v>
+        <v>0.5798648103324808</v>
       </c>
       <c r="H5">
-        <v>0.001311259841999535</v>
+        <v>0.001498878627832045</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5063746023800633</v>
+        <v>0.4820301541828087</v>
       </c>
       <c r="K5">
-        <v>0.4653856807613934</v>
+        <v>0.3885481749601034</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2100543871299081</v>
       </c>
       <c r="M5">
-        <v>0.9141439549566428</v>
+        <v>0.09476361796197708</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9412135060228763</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7535057687338167</v>
+        <v>0.7431950796790261</v>
       </c>
       <c r="C6">
-        <v>0.1795792418850795</v>
+        <v>0.2072580027916899</v>
       </c>
       <c r="D6">
-        <v>0.03867465364712075</v>
+        <v>0.04101704381639593</v>
       </c>
       <c r="E6">
-        <v>0.9669247435326156</v>
+        <v>0.9700681621038996</v>
       </c>
       <c r="F6">
-        <v>0.7545245199235069</v>
+        <v>0.6662674328001046</v>
       </c>
       <c r="G6">
-        <v>0.6936255516890384</v>
+        <v>0.5784348138504072</v>
       </c>
       <c r="H6">
-        <v>0.001255457555087602</v>
+        <v>0.001442283737449035</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5055799910418841</v>
+        <v>0.4813827787670704</v>
       </c>
       <c r="K6">
-        <v>0.4647615961451237</v>
+        <v>0.3883392481267833</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2101958934989234</v>
       </c>
       <c r="M6">
-        <v>0.9076638642768842</v>
+        <v>0.09455764904669905</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.9345070891144758</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7910040086767367</v>
+        <v>0.7791239655498146</v>
       </c>
       <c r="C7">
-        <v>0.1883257302899892</v>
+        <v>0.2180714340110228</v>
       </c>
       <c r="D7">
-        <v>0.03928890859101841</v>
+        <v>0.04218249752923597</v>
       </c>
       <c r="E7">
-        <v>1.01596367694799</v>
+        <v>1.018810073942888</v>
       </c>
       <c r="F7">
-        <v>0.7720094274249121</v>
+        <v>0.6771059882820651</v>
       </c>
       <c r="G7">
-        <v>0.7091773329129154</v>
+        <v>0.5911905114678291</v>
       </c>
       <c r="H7">
-        <v>0.00166517397380006</v>
+        <v>0.001852180570957485</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5111489232935043</v>
+        <v>0.4794048189914832</v>
       </c>
       <c r="K7">
-        <v>0.4691516131781626</v>
+        <v>0.3886744496525161</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2086994129491409</v>
       </c>
       <c r="M7">
-        <v>0.9526523377756462</v>
+        <v>0.09570822970594861</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9806736884254406</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9567375001246603</v>
+        <v>0.9370841690527243</v>
       </c>
       <c r="C8">
-        <v>0.2270210904856782</v>
+        <v>0.2671362805624256</v>
       </c>
       <c r="D8">
-        <v>0.0419306762722087</v>
+        <v>0.04704586256080034</v>
       </c>
       <c r="E8">
-        <v>1.233338236750967</v>
+        <v>1.23470088736245</v>
       </c>
       <c r="F8">
-        <v>0.8516458698687757</v>
+        <v>0.7310431410616829</v>
       </c>
       <c r="G8">
-        <v>0.7801958441403372</v>
+        <v>0.6437730484563104</v>
       </c>
       <c r="H8">
-        <v>0.004062539892473405</v>
+        <v>0.004182884108759222</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5371147957910409</v>
+        <v>0.4850819128683241</v>
       </c>
       <c r="K8">
-        <v>0.4900388414775563</v>
+        <v>0.3935736441531397</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.203471215610989</v>
       </c>
       <c r="M8">
-        <v>1.151531108973245</v>
+        <v>0.1031541023009659</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.185467961763692</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.283655451293725</v>
+        <v>1.246173083664331</v>
       </c>
       <c r="C9">
-        <v>0.3035431563611439</v>
+        <v>0.3668022599581207</v>
       </c>
       <c r="D9">
-        <v>0.04685617729641933</v>
+        <v>0.05600642770811248</v>
       </c>
       <c r="E9">
-        <v>1.664892803867417</v>
+        <v>1.662336295323641</v>
       </c>
       <c r="F9">
-        <v>1.018256017141482</v>
+        <v>0.8516509944541042</v>
       </c>
       <c r="G9">
-        <v>0.9296044275487105</v>
+        <v>0.7453026921222659</v>
       </c>
       <c r="H9">
-        <v>0.01124283272740337</v>
+        <v>0.01094224590184972</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5937402411567092</v>
+        <v>0.5214635701842951</v>
       </c>
       <c r="K9">
-        <v>0.5372164251201497</v>
+        <v>0.4112658980747739</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1956754299583601</v>
       </c>
       <c r="M9">
-        <v>1.544046831172295</v>
+        <v>0.1256355792709805</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.59046687404313</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.526681558150329</v>
+        <v>1.476710592323201</v>
       </c>
       <c r="C10">
-        <v>0.3576396852781158</v>
+        <v>0.4340845974821264</v>
       </c>
       <c r="D10">
-        <v>0.05146480973431267</v>
+        <v>0.06468708340957363</v>
       </c>
       <c r="E10">
-        <v>1.886345568304719</v>
+        <v>1.879981536736636</v>
       </c>
       <c r="F10">
-        <v>1.127058215581343</v>
+        <v>0.917136672749308</v>
       </c>
       <c r="G10">
-        <v>1.023219664386247</v>
+        <v>0.8245990048738179</v>
       </c>
       <c r="H10">
-        <v>0.01781601095784824</v>
+        <v>0.0169697547008929</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6276517628878935</v>
+        <v>0.5054648746344839</v>
       </c>
       <c r="K10">
-        <v>0.563648041800846</v>
+        <v>0.4121445571500715</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1849617067738798</v>
       </c>
       <c r="M10">
-        <v>1.832129071628287</v>
+        <v>0.1405726904532294</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.883929184007286</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.644152733919071</v>
+        <v>1.59765068158697</v>
       </c>
       <c r="C11">
-        <v>0.3581748882609759</v>
+        <v>0.4222311697917007</v>
       </c>
       <c r="D11">
-        <v>0.06518406471585791</v>
+        <v>0.08334004339283041</v>
       </c>
       <c r="E11">
-        <v>1.21132372705469</v>
+        <v>1.205467951124348</v>
       </c>
       <c r="F11">
-        <v>0.9971334211235785</v>
+        <v>0.7895504852316293</v>
       </c>
       <c r="G11">
-        <v>0.8687308485489496</v>
+        <v>0.7340315014136962</v>
       </c>
       <c r="H11">
-        <v>0.03393874533294294</v>
+        <v>0.0330342130176966</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5448640741720538</v>
+        <v>0.3799046598160345</v>
       </c>
       <c r="K11">
-        <v>0.4712603009895773</v>
+        <v>0.333393425134048</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1527021143064893</v>
       </c>
       <c r="M11">
-        <v>1.936988690957833</v>
+        <v>0.1151413869821276</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.979793155732835</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.692792157077264</v>
+        <v>1.651349631278634</v>
       </c>
       <c r="C12">
-        <v>0.347424101275152</v>
+        <v>0.400394095993704</v>
       </c>
       <c r="D12">
-        <v>0.07799286941204286</v>
+        <v>0.09879594043644602</v>
       </c>
       <c r="E12">
-        <v>0.7256601385834642</v>
+        <v>0.7210270782854025</v>
       </c>
       <c r="F12">
-        <v>0.8711988586302368</v>
+        <v>0.6820394589540371</v>
       </c>
       <c r="G12">
-        <v>0.7293437507516103</v>
+        <v>0.6358170568125985</v>
       </c>
       <c r="H12">
-        <v>0.07034513667624509</v>
+        <v>0.06950911957133599</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4726476184849275</v>
+        <v>0.3101901913991512</v>
       </c>
       <c r="K12">
-        <v>0.3946620199349553</v>
+        <v>0.2768709374105001</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1319683687736095</v>
       </c>
       <c r="M12">
-        <v>1.964890077212289</v>
+        <v>0.09381691342341725</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.000208825777605</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.690808748407335</v>
+        <v>1.655213114626434</v>
       </c>
       <c r="C13">
-        <v>0.327508058664904</v>
+        <v>0.3709248955846363</v>
       </c>
       <c r="D13">
-        <v>0.09059564327102976</v>
+        <v>0.1114011283134531</v>
       </c>
       <c r="E13">
-        <v>0.3584419074943028</v>
+        <v>0.3553058341010598</v>
       </c>
       <c r="F13">
-        <v>0.7411617746756889</v>
+        <v>0.5857769214140731</v>
       </c>
       <c r="G13">
-        <v>0.593587862690427</v>
+        <v>0.5221682427853409</v>
       </c>
       <c r="H13">
-        <v>0.1237892441776864</v>
+        <v>0.1231101191848438</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4043005018446166</v>
+        <v>0.2770221490604783</v>
       </c>
       <c r="K13">
-        <v>0.3255458939718103</v>
+        <v>0.2339242126016501</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1178022987412799</v>
       </c>
       <c r="M13">
-        <v>1.934983589551081</v>
+        <v>0.07518789563341954</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.964687109097952</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.6666192692484</v>
+        <v>1.635401304842759</v>
       </c>
       <c r="C14">
-        <v>0.3096250338219591</v>
+        <v>0.3469959888654159</v>
       </c>
       <c r="D14">
-        <v>0.09944806479160917</v>
+        <v>0.1188247436618468</v>
       </c>
       <c r="E14">
-        <v>0.1735582918239444</v>
+        <v>0.1713983405976904</v>
       </c>
       <c r="F14">
-        <v>0.6499751032288401</v>
+        <v>0.5232016003120918</v>
       </c>
       <c r="G14">
-        <v>0.5023922066038153</v>
+        <v>0.4394849757364909</v>
       </c>
       <c r="H14">
-        <v>0.1716177267362156</v>
+        <v>0.1710706049862694</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3591821882710775</v>
+        <v>0.2660043662861895</v>
       </c>
       <c r="K14">
-        <v>0.2817441949618775</v>
+        <v>0.2096364334637322</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1104037599660437</v>
       </c>
       <c r="M14">
-        <v>1.888176255270565</v>
+        <v>0.06357227281126399</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.914712755272234</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.649799377867112</v>
+        <v>1.619814739278894</v>
       </c>
       <c r="C15">
-        <v>0.3033301201439258</v>
+        <v>0.3393938134982761</v>
       </c>
       <c r="D15">
-        <v>0.1012299452491661</v>
+        <v>0.119699717272951</v>
       </c>
       <c r="E15">
-        <v>0.1374461566410687</v>
+        <v>0.1355589026801383</v>
       </c>
       <c r="F15">
-        <v>0.6261851173641801</v>
+        <v>0.5088534022209288</v>
       </c>
       <c r="G15">
-        <v>0.4797146094088589</v>
+        <v>0.4166703089559149</v>
       </c>
       <c r="H15">
-        <v>0.1836148988248283</v>
+        <v>0.1831185032229001</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3484552489823471</v>
+        <v>0.2678555744613362</v>
       </c>
       <c r="K15">
-        <v>0.2718138897252054</v>
+        <v>0.2053406499268569</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1093699574482709</v>
       </c>
       <c r="M15">
-        <v>1.864457057949522</v>
+        <v>0.06099582837015305</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.890568398465803</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.544986412592692</v>
+        <v>1.516950297604041</v>
       </c>
       <c r="C16">
-        <v>0.2847943678305569</v>
+        <v>0.3215992873709013</v>
       </c>
       <c r="D16">
-        <v>0.09607415811949238</v>
+        <v>0.1102443933136286</v>
       </c>
       <c r="E16">
-        <v>0.1332127924195277</v>
+        <v>0.1319608187362959</v>
       </c>
       <c r="F16">
-        <v>0.607777801589009</v>
+        <v>0.5136319524861577</v>
       </c>
       <c r="G16">
-        <v>0.4691833251960986</v>
+        <v>0.3892154700183852</v>
       </c>
       <c r="H16">
-        <v>0.1689640118997318</v>
+        <v>0.1686607504767181</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3484255222375907</v>
+        <v>0.309645848637345</v>
       </c>
       <c r="K16">
-        <v>0.274914314563933</v>
+        <v>0.2180635287473436</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1160791047559169</v>
       </c>
       <c r="M16">
-        <v>1.7469613127233</v>
+        <v>0.06202473393454255</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.775851919065218</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.477651015343582</v>
+        <v>1.449193304735331</v>
       </c>
       <c r="C17">
-        <v>0.2799554765761627</v>
+        <v>0.3198408264500188</v>
       </c>
       <c r="D17">
-        <v>0.08736867518133806</v>
+        <v>0.09970331047744452</v>
       </c>
       <c r="E17">
-        <v>0.2142234477599843</v>
+        <v>0.2131204318466686</v>
       </c>
       <c r="F17">
-        <v>0.6413356389781626</v>
+        <v>0.5490614930135749</v>
       </c>
       <c r="G17">
-        <v>0.5084292040604481</v>
+        <v>0.4127038497857285</v>
       </c>
       <c r="H17">
-        <v>0.1304488594882827</v>
+        <v>0.1302222480569526</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3719472889274016</v>
+        <v>0.3474036987485221</v>
       </c>
       <c r="K17">
-        <v>0.3000223172753529</v>
+        <v>0.2405935108208865</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.125648606604555</v>
       </c>
       <c r="M17">
-        <v>1.681785543089916</v>
+        <v>0.06847955319611643</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.713803287859889</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.434973467390193</v>
+        <v>1.403575038630493</v>
       </c>
       <c r="C18">
-        <v>0.2864882476422679</v>
+        <v>0.3330098857523467</v>
       </c>
       <c r="D18">
-        <v>0.07557169410206654</v>
+        <v>0.08720535772143023</v>
       </c>
       <c r="E18">
-        <v>0.4403470769922961</v>
+        <v>0.439011671203076</v>
       </c>
       <c r="F18">
-        <v>0.7269219229511208</v>
+        <v>0.6211942469919478</v>
       </c>
       <c r="G18">
-        <v>0.6004116307925926</v>
+        <v>0.4813313995388313</v>
       </c>
       <c r="H18">
-        <v>0.07809096420536576</v>
+        <v>0.07786697092848271</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4208713924396648</v>
+        <v>0.3947948003701072</v>
       </c>
       <c r="K18">
-        <v>0.3503678878370096</v>
+        <v>0.2781575713299986</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1403751403638616</v>
       </c>
       <c r="M18">
-        <v>1.65410444657519</v>
+        <v>0.08165110872906922</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.690821797132514</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.415686124794888</v>
+        <v>1.379312058920732</v>
       </c>
       <c r="C19">
-        <v>0.3021309857333279</v>
+        <v>0.3583942338823363</v>
       </c>
       <c r="D19">
-        <v>0.06345938788414429</v>
+        <v>0.07477502209464149</v>
       </c>
       <c r="E19">
-        <v>0.8640030874550177</v>
+        <v>0.8619291334909747</v>
       </c>
       <c r="F19">
-        <v>0.8546288021844077</v>
+        <v>0.7235927958635386</v>
       </c>
       <c r="G19">
-        <v>0.7375247711401158</v>
+        <v>0.5864726349983584</v>
       </c>
       <c r="H19">
-        <v>0.03486968370911114</v>
+        <v>0.034573464383854</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.490930385450298</v>
+        <v>0.452475151716186</v>
       </c>
       <c r="K19">
-        <v>0.423090813354662</v>
+        <v>0.3294173348733089</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1597058130999791</v>
       </c>
       <c r="M19">
-        <v>1.659054716101252</v>
+        <v>0.1010011409033353</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.701678332866834</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.462714196438981</v>
+        <v>1.415403531947788</v>
       </c>
       <c r="C20">
-        <v>0.3432711431432267</v>
+        <v>0.4179630037080528</v>
       </c>
       <c r="D20">
-        <v>0.05030569114241246</v>
+        <v>0.0619186911468077</v>
       </c>
       <c r="E20">
-        <v>1.823750796127996</v>
+        <v>1.818627407646332</v>
       </c>
       <c r="F20">
-        <v>1.097017442870083</v>
+        <v>0.9061574253087201</v>
       </c>
       <c r="G20">
-        <v>0.9970775911841088</v>
+        <v>0.7923391816863159</v>
       </c>
       <c r="H20">
-        <v>0.01592019972108272</v>
+        <v>0.01525758442708502</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6179445237482355</v>
+        <v>0.5308069862217621</v>
       </c>
       <c r="K20">
-        <v>0.5558336145241682</v>
+        <v>0.415177942209084</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1889384604322615</v>
       </c>
       <c r="M20">
-        <v>1.756133529337774</v>
+        <v>0.1377724623184946</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.808030780353789</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.649188792502116</v>
+        <v>1.594540252417573</v>
       </c>
       <c r="C21">
-        <v>0.3894283199023505</v>
+        <v>0.4672083301936425</v>
       </c>
       <c r="D21">
-        <v>0.05201594113927399</v>
+        <v>0.06944908384782167</v>
       </c>
       <c r="E21">
-        <v>2.151314306901241</v>
+        <v>2.14146485706371</v>
       </c>
       <c r="F21">
-        <v>1.216775800137924</v>
+        <v>0.9454263641161731</v>
       </c>
       <c r="G21">
-        <v>1.108811248634197</v>
+        <v>0.9403538207223079</v>
       </c>
       <c r="H21">
-        <v>0.02256503929840958</v>
+        <v>0.02121002375741865</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6638984660800702</v>
+        <v>0.4261906317859996</v>
       </c>
       <c r="K21">
-        <v>0.5976089330628085</v>
+        <v>0.4099586460430942</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1787362155278061</v>
       </c>
       <c r="M21">
-        <v>1.983305993875831</v>
+        <v>0.1476881211334273</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.032344213456554</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.772149803553788</v>
+        <v>1.713213152616561</v>
       </c>
       <c r="C22">
-        <v>0.4183994586064443</v>
+        <v>0.4965673639161423</v>
       </c>
       <c r="D22">
-        <v>0.05368346810801228</v>
+        <v>0.07544932253573222</v>
       </c>
       <c r="E22">
-        <v>2.315789443383196</v>
+        <v>2.302653553732327</v>
       </c>
       <c r="F22">
-        <v>1.286076805601127</v>
+        <v>0.9607892692496023</v>
       </c>
       <c r="G22">
-        <v>1.171630714097006</v>
+        <v>1.036881611163722</v>
       </c>
       <c r="H22">
-        <v>0.02707678202701835</v>
+        <v>0.02520406866068114</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6888942529055555</v>
+        <v>0.3574532283974463</v>
       </c>
       <c r="K22">
-        <v>0.6194950337707112</v>
+        <v>0.4014282699910154</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1704744331529113</v>
       </c>
       <c r="M22">
-        <v>2.131163393404108</v>
+        <v>0.1523687953607613</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.176935223522264</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.706446825565308</v>
+        <v>1.649238401992221</v>
       </c>
       <c r="C23">
-        <v>0.4029138868872622</v>
+        <v>0.4822340905058411</v>
       </c>
       <c r="D23">
-        <v>0.05279637366839296</v>
+        <v>0.07180614777978178</v>
       </c>
       <c r="E23">
-        <v>2.227852578517542</v>
+        <v>2.216618865549108</v>
       </c>
       <c r="F23">
-        <v>1.248897399459523</v>
+        <v>0.9578585334074177</v>
       </c>
       <c r="G23">
-        <v>1.137912892334924</v>
+        <v>0.9767616479961987</v>
       </c>
       <c r="H23">
-        <v>0.02462376860450721</v>
+        <v>0.02305122380787594</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.6754558780394007</v>
+        <v>0.4059223183379572</v>
       </c>
       <c r="K23">
-        <v>0.6077076344774568</v>
+        <v>0.4086965582022515</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1757810379754687</v>
       </c>
       <c r="M23">
-        <v>2.052151121213313</v>
+        <v>0.1509777992033463</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.100807626225247</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.45915180026833</v>
+        <v>1.411354213339791</v>
       </c>
       <c r="C24">
-        <v>0.34473353821366</v>
+        <v>0.4205315063248349</v>
       </c>
       <c r="D24">
-        <v>0.04937369973524497</v>
+        <v>0.06080923596394427</v>
       </c>
       <c r="E24">
-        <v>1.897943982799006</v>
+        <v>1.892655982958104</v>
       </c>
       <c r="F24">
-        <v>1.112103766104809</v>
+        <v>0.9184216682589721</v>
       </c>
       <c r="G24">
-        <v>1.014177254256566</v>
+        <v>0.8050519500598767</v>
       </c>
       <c r="H24">
-        <v>0.01627515849148997</v>
+        <v>0.01559644272466376</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6266109860129063</v>
+        <v>0.5386668620148214</v>
       </c>
       <c r="K24">
-        <v>0.5652987874927362</v>
+        <v>0.4219958409360629</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1915669063043346</v>
       </c>
       <c r="M24">
-        <v>1.754887512177561</v>
+        <v>0.1402786709454631</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.807380195707964</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.194908940291498</v>
+        <v>1.162181281734746</v>
       </c>
       <c r="C25">
-        <v>0.2827438312451704</v>
+        <v>0.3403249281909666</v>
       </c>
       <c r="D25">
-        <v>0.04555166661580046</v>
+        <v>0.05339637039459433</v>
       </c>
       <c r="E25">
-        <v>1.547398717905764</v>
+        <v>1.546116872090309</v>
       </c>
       <c r="F25">
-        <v>0.971910319250199</v>
+        <v>0.8210781355742967</v>
       </c>
       <c r="G25">
-        <v>0.8879433783230581</v>
+        <v>0.7127928615812209</v>
       </c>
       <c r="H25">
-        <v>0.008998926940471469</v>
+        <v>0.008856570599958258</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5777392674542767</v>
+        <v>0.5203422693507633</v>
       </c>
       <c r="K25">
-        <v>0.5237100839143238</v>
+        <v>0.40759318034182</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1983368235281411</v>
       </c>
       <c r="M25">
-        <v>1.437462545096565</v>
+        <v>0.1193823953561797</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.481164324315586</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
